--- a/web/tables/generators/R22_profi_dopoledne.xlsx
+++ b/web/tables/generators/R22_profi_dopoledne.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL" sheetId="3" r:id="rId1"/>
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,7 +580,7 @@
         <f>config!G2</f>
         <v>138:127</v>
       </c>
-      <c r="H2" t="str">
+      <c r="H2" s="1" t="str">
         <f>config!H2</f>
         <v>2</v>
       </c>
@@ -693,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScale="137" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
